--- a/England 2026/incd_nums.xlsx
+++ b/England 2026/incd_nums.xlsx
@@ -53,7 +53,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA18"/>
+  <dimension ref="A1:AA27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -90,262 +90,262 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>5.7566210264913238</v>
+        <v>5.5015521298241152</v>
       </c>
       <c r="B1" s="0">
-        <v>5.3870866062064895</v>
+        <v>5.120911363747882</v>
       </c>
       <c r="C1" s="0">
-        <v>5.0395473368104096</v>
+        <v>4.7675943510544787</v>
       </c>
       <c r="D1" s="0">
-        <v>4.8429759674198296</v>
+        <v>4.5662605147835809</v>
       </c>
       <c r="E1" s="0">
-        <v>4.7897035556538725</v>
+        <v>4.5075868683203471</v>
       </c>
       <c r="F1" s="0">
-        <v>4.7167236006779261</v>
+        <v>4.4309514886866639</v>
       </c>
       <c r="G1" s="0">
-        <v>4.674838450921543</v>
+        <v>4.3896133393880765</v>
       </c>
       <c r="H1" s="0">
-        <v>4.9956514726037495</v>
+        <v>4.7462238310620304</v>
       </c>
       <c r="I1" s="0">
-        <v>5.6009457119042123</v>
+        <v>5.3978645428934788</v>
       </c>
       <c r="J1" s="0">
-        <v>6.0530331248341414</v>
+        <v>5.8257351671634403</v>
       </c>
       <c r="K1" s="0">
-        <v>6.0310245014807631</v>
+        <v>5.7078794158767492</v>
       </c>
       <c r="L1" s="0">
-        <v>6.0777639652529718</v>
+        <v>5.7413371784881901</v>
       </c>
       <c r="M1" s="0">
-        <v>6.1188758433365962</v>
+        <v>5.7764507374312934</v>
       </c>
       <c r="N1" s="0">
-        <v>6.1485186913427086</v>
+        <v>5.7993545413026633</v>
       </c>
       <c r="O1" s="0">
-        <v>6.1683643008098148</v>
+        <v>5.8127508223759321</v>
       </c>
       <c r="P1" s="0">
-        <v>6.1879389364991964</v>
+        <v>5.8258987435561895</v>
       </c>
       <c r="Q1" s="0">
-        <v>6.2039794641390191</v>
+        <v>5.8392074634550442</v>
       </c>
       <c r="R1" s="0">
-        <v>6.2194579030717119</v>
+        <v>5.8528188495397764</v>
       </c>
       <c r="S1" s="0">
-        <v>6.235727873859072</v>
+        <v>5.866771198761751</v>
       </c>
       <c r="T1" s="0">
-        <v>6.2526514275196119</v>
+        <v>5.8810708107876195</v>
       </c>
       <c r="U1" s="0">
-        <v>6.2700697713862104</v>
+        <v>5.8957150359023469</v>
       </c>
       <c r="V1" s="0">
-        <v>6.2878972302774434</v>
+        <v>5.9106529614116203</v>
       </c>
       <c r="W1" s="0">
-        <v>6.3066053501994599</v>
+        <v>5.9263419025731361</v>
       </c>
       <c r="X1" s="0">
-        <v>6.3260856836510362</v>
+        <v>5.9427044864123539</v>
       </c>
       <c r="Y1" s="0">
-        <v>6.3462429392159985</v>
+        <v>5.9596663682790236</v>
       </c>
       <c r="Z1" s="0">
-        <v>6.3669935620471536</v>
+        <v>5.977158377699852</v>
       </c>
       <c r="AA1" s="0">
-        <v>6.3882644096287908</v>
+        <v>5.995117787251754</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>5.9718986928541282</v>
+        <v>6.0255604383483581</v>
       </c>
       <c r="B2" s="0">
-        <v>5.6092150429177421</v>
+        <v>5.6210581029032545</v>
       </c>
       <c r="C2" s="0">
-        <v>5.2624455812702067</v>
+        <v>5.2434607810681069</v>
       </c>
       <c r="D2" s="0">
-        <v>5.0640192241538049</v>
+        <v>5.0288468426608635</v>
       </c>
       <c r="E2" s="0">
-        <v>4.9972234804941511</v>
+        <v>4.9678254906186146</v>
       </c>
       <c r="F2" s="0">
-        <v>4.9205079121903754</v>
+        <v>4.8834007922916465</v>
       </c>
       <c r="G2" s="0">
-        <v>4.8706492803499213</v>
+        <v>4.8314440871030193</v>
       </c>
       <c r="H2" s="0">
-        <v>5.1725532234726472</v>
+        <v>5.2069112833516265</v>
       </c>
       <c r="I2" s="0">
-        <v>5.7726478499706966</v>
+        <v>5.8936779784096842</v>
       </c>
       <c r="J2" s="0">
-        <v>6.230562389220129</v>
+        <v>6.3490044644327979</v>
       </c>
       <c r="K2" s="0">
-        <v>6.1814624299680903</v>
+        <v>6.2265116644480925</v>
       </c>
       <c r="L2" s="0">
-        <v>6.2054344228358875</v>
+        <v>6.259310536567523</v>
       </c>
       <c r="M2" s="0">
-        <v>6.2322405457651113</v>
+        <v>6.2954949483083613</v>
       </c>
       <c r="N2" s="0">
-        <v>6.2551214273835028</v>
+        <v>6.3224377530626894</v>
       </c>
       <c r="O2" s="0">
-        <v>6.2722291125522185</v>
+        <v>6.3392546234217209</v>
       </c>
       <c r="P2" s="0">
-        <v>6.2889411039657839</v>
+        <v>6.355794898828635</v>
       </c>
       <c r="Q2" s="0">
-        <v>6.3055616701641437</v>
+        <v>6.3724342531238856</v>
       </c>
       <c r="R2" s="0">
-        <v>6.3222340698827733</v>
+        <v>6.3893232556815587</v>
       </c>
       <c r="S2" s="0">
-        <v>6.3390283741499234</v>
+        <v>6.4065111047215435</v>
       </c>
       <c r="T2" s="0">
-        <v>6.3559923601256427</v>
+        <v>6.4240210098343535</v>
       </c>
       <c r="U2" s="0">
-        <v>6.3731626385925892</v>
+        <v>6.4418625200183559</v>
       </c>
       <c r="V2" s="0">
-        <v>6.3905193402112923</v>
+        <v>6.4599903105865897</v>
       </c>
       <c r="W2" s="0">
-        <v>6.4085883955019725</v>
+        <v>6.478914233044434</v>
       </c>
       <c r="X2" s="0">
-        <v>6.4273115786038471</v>
+        <v>6.4985567948528047</v>
       </c>
       <c r="Y2" s="0">
-        <v>6.4466292288141878</v>
+        <v>6.5188421627950666</v>
       </c>
       <c r="Z2" s="0">
-        <v>6.4666603354655985</v>
+        <v>6.5396986557818107</v>
       </c>
       <c r="AA2" s="0">
-        <v>6.4900689853729832</v>
+        <v>6.5610601517602376</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>6.1317809974365307</v>
+        <v>6.3459701660162464</v>
       </c>
       <c r="B3" s="0">
-        <v>5.7356183451190148</v>
+        <v>5.9165705033746949</v>
       </c>
       <c r="C3" s="0">
-        <v>5.3824026425664338</v>
+        <v>5.5163494122852672</v>
       </c>
       <c r="D3" s="0">
-        <v>5.1956602407528756</v>
+        <v>5.2841746591402865</v>
       </c>
       <c r="E3" s="0">
-        <v>5.1444170639299589</v>
+        <v>5.2095147652677305</v>
       </c>
       <c r="F3" s="0">
-        <v>5.0708546946197677</v>
+        <v>5.1126321085863315</v>
       </c>
       <c r="G3" s="0">
-        <v>5.0258593702801422</v>
+        <v>5.0567691173318199</v>
       </c>
       <c r="H3" s="0">
-        <v>5.3145699738519063</v>
+        <v>5.4344482801652987</v>
       </c>
       <c r="I3" s="0">
-        <v>5.9935835918551863</v>
+        <v>6.1411264143769966</v>
       </c>
       <c r="J3" s="0">
-        <v>6.5155305808313191</v>
+        <v>6.6249907917596547</v>
       </c>
       <c r="K3" s="0">
-        <v>6.5023256571086199</v>
+        <v>6.4909533510818314</v>
       </c>
       <c r="L3" s="0">
-        <v>6.5523309305108937</v>
+        <v>6.5191701897660996</v>
       </c>
       <c r="M3" s="0">
-        <v>6.5971512680090409</v>
+        <v>6.5539075296840634</v>
       </c>
       <c r="N3" s="0">
-        <v>6.6299084895947766</v>
+        <v>6.5776491286462679</v>
       </c>
       <c r="O3" s="0">
-        <v>6.6521092436602505</v>
+        <v>6.5917085247211746</v>
       </c>
       <c r="P3" s="0">
-        <v>6.6738062360835917</v>
+        <v>6.6059337449412636</v>
       </c>
       <c r="Q3" s="0">
-        <v>6.6953429432868426</v>
+        <v>6.6205112313444188</v>
       </c>
       <c r="R3" s="0">
-        <v>6.7168881492794128</v>
+        <v>6.6354814216713791</v>
       </c>
       <c r="S3" s="0">
-        <v>6.7385257264385352</v>
+        <v>6.6508282631509328</v>
       </c>
       <c r="T3" s="0">
-        <v>6.760310085912125</v>
+        <v>6.6665378441348526</v>
       </c>
       <c r="U3" s="0">
-        <v>6.7822796562252634</v>
+        <v>6.6826014797442372</v>
       </c>
       <c r="V3" s="0">
-        <v>6.8044104725667065</v>
+        <v>6.6989654418923399</v>
       </c>
       <c r="W3" s="0">
-        <v>6.8272589714932845</v>
+        <v>6.7161584313171341</v>
       </c>
       <c r="X3" s="0">
-        <v>6.8507597221358987</v>
+        <v>6.7341036965660921</v>
       </c>
       <c r="Y3" s="0">
-        <v>6.8748458145332476</v>
+        <v>6.7542336153986371</v>
       </c>
       <c r="Z3" s="0">
-        <v>6.8994520172859124</v>
+        <v>6.7750011027994557</v>
       </c>
       <c r="AA3" s="0">
-        <v>6.9245169713700285</v>
+        <v>6.7963029704085889</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>5.7566210264913238</v>
+        <v>4.5662604994518716</v>
       </c>
       <c r="B4" s="0">
-        <v>5.3870866062064895</v>
+        <v>5.0288468372629112</v>
       </c>
       <c r="C4" s="0">
-        <v>5.0395473368104096</v>
+        <v>5.2841745584848256</v>
       </c>
       <c r="D4" s="0">
         <v>4.8429759674198296</v>
@@ -422,13 +422,13 @@
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>5.9718986928541282</v>
+        <v>4.5075868531063179</v>
       </c>
       <c r="B5" s="0">
-        <v>5.6092150429177421</v>
+        <v>4.9678254851893779</v>
       </c>
       <c r="C5" s="0">
-        <v>5.2624455812702067</v>
+        <v>5.2095146913776844</v>
       </c>
       <c r="D5" s="0">
         <v>5.0640192241538049</v>
@@ -505,13 +505,13 @@
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>6.1317809974365307</v>
+        <v>4.4309533321409074</v>
       </c>
       <c r="B6" s="0">
-        <v>5.7356183451190148</v>
+        <v>4.8834008180834072</v>
       </c>
       <c r="C6" s="0">
-        <v>5.3824026425664338</v>
+        <v>5.1126299349761606</v>
       </c>
       <c r="D6" s="0">
         <v>5.1956602407528756</v>
@@ -588,13 +588,13 @@
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>5.7566210264913238</v>
+        <v>4.3896133078557078</v>
       </c>
       <c r="B7" s="0">
-        <v>5.3870866062064895</v>
+        <v>4.8314441524448206</v>
       </c>
       <c r="C7" s="0">
-        <v>5.0395473368104096</v>
+        <v>5.0567706854733219</v>
       </c>
       <c r="D7" s="0">
         <v>4.8429759674198296</v>
@@ -671,13 +671,13 @@
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>5.9718986928541282</v>
+        <v>4.7462232678497447</v>
       </c>
       <c r="B8" s="0">
-        <v>5.6092150429177421</v>
+        <v>5.2069130221445628</v>
       </c>
       <c r="C8" s="0">
-        <v>5.2624455812702067</v>
+        <v>5.4344496582197364</v>
       </c>
       <c r="D8" s="0">
         <v>5.0640192241538049</v>
@@ -754,13 +754,13 @@
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>6.1317809974365307</v>
+        <v>5.397866381944219</v>
       </c>
       <c r="B9" s="0">
-        <v>5.7356183451190148</v>
+        <v>5.8936782230152574</v>
       </c>
       <c r="C9" s="0">
-        <v>5.3824026425664338</v>
+        <v>6.1411254595300058</v>
       </c>
       <c r="D9" s="0">
         <v>5.1956602407528756</v>
@@ -837,13 +837,13 @@
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>5.7566210264913238</v>
+        <v>5.8257358994860091</v>
       </c>
       <c r="B10" s="0">
-        <v>5.3870866062064895</v>
+        <v>6.3490046559259428</v>
       </c>
       <c r="C10" s="0">
-        <v>5.0395473368104096</v>
+        <v>6.6249908164213434</v>
       </c>
       <c r="D10" s="0">
         <v>4.8429759674198296</v>
@@ -920,13 +920,13 @@
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>5.9718986928541282</v>
+        <v>5.7078803888894161</v>
       </c>
       <c r="B11" s="0">
-        <v>5.6092150429177421</v>
+        <v>6.2265118269087179</v>
       </c>
       <c r="C11" s="0">
-        <v>5.2624455812702067</v>
+        <v>6.4909524348818879</v>
       </c>
       <c r="D11" s="0">
         <v>5.0640192241538049</v>
@@ -1003,13 +1003,13 @@
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>6.1317809974365307</v>
+        <v>5.7413378339774628</v>
       </c>
       <c r="B12" s="0">
-        <v>5.7356183451190148</v>
+        <v>6.2593106718806126</v>
       </c>
       <c r="C12" s="0">
-        <v>5.3824026425664338</v>
+        <v>6.5191693463607035</v>
       </c>
       <c r="D12" s="0">
         <v>5.1956602407528756</v>
@@ -1086,13 +1086,13 @@
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>5.7566210264913238</v>
+        <v>5.7764506124248305</v>
       </c>
       <c r="B13" s="0">
-        <v>5.3870866062064895</v>
+        <v>6.2954951023993928</v>
       </c>
       <c r="C13" s="0">
-        <v>5.0395473368104096</v>
+        <v>6.5539067801699273</v>
       </c>
       <c r="D13" s="0">
         <v>4.8429759674198296</v>
@@ -1169,13 +1169,13 @@
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>5.9718986928541282</v>
+        <v>5.7993548593401236</v>
       </c>
       <c r="B14" s="0">
-        <v>5.6092150429177421</v>
+        <v>6.3224378842620901</v>
       </c>
       <c r="C14" s="0">
-        <v>5.2624455812702067</v>
+        <v>6.5776484692637931</v>
       </c>
       <c r="D14" s="0">
         <v>5.0640192241538049</v>
@@ -1252,13 +1252,13 @@
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>6.1317809974365307</v>
+        <v>5.8127505442002727</v>
       </c>
       <c r="B15" s="0">
-        <v>5.7356183451190148</v>
+        <v>6.3392547391784877</v>
       </c>
       <c r="C15" s="0">
-        <v>5.3824026425664338</v>
+        <v>6.5917079479173548</v>
       </c>
       <c r="D15" s="0">
         <v>5.1956602407528756</v>
@@ -1335,13 +1335,13 @@
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>5.7566210264913238</v>
+        <v>5.8258988187153147</v>
       </c>
       <c r="B16" s="0">
-        <v>5.3870866062064895</v>
+        <v>6.3557950039083169</v>
       </c>
       <c r="C16" s="0">
-        <v>5.0395473368104096</v>
+        <v>6.6059332415109813</v>
       </c>
       <c r="D16" s="0">
         <v>4.8429759674198296</v>
@@ -1418,13 +1418,13 @@
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>5.9718986928541282</v>
+        <v>5.8392075415920575</v>
       </c>
       <c r="B17" s="0">
-        <v>5.6092150429177421</v>
+        <v>6.3724343508623651</v>
       </c>
       <c r="C17" s="0">
-        <v>5.2624455812702067</v>
+        <v>6.6205107922678952</v>
       </c>
       <c r="D17" s="0">
         <v>5.0640192241538049</v>
@@ -1501,13 +1501,13 @@
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>6.1317809974365307</v>
+        <v>5.8528189040171537</v>
       </c>
       <c r="B18" s="0">
-        <v>5.7356183451190148</v>
+        <v>6.389323348387352</v>
       </c>
       <c r="C18" s="0">
-        <v>5.3824026425664338</v>
+        <v>6.6354810386307266</v>
       </c>
       <c r="D18" s="0">
         <v>5.1956602407528756</v>
@@ -1580,6 +1580,105 @@
       </c>
       <c r="AA18" s="0">
         <v>3.7458933794414118</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>5.8667712185617713</v>
+      </c>
+      <c r="B19" s="0">
+        <v>6.4065111940535671</v>
+      </c>
+      <c r="C19" s="0">
+        <v>6.6508279286202141</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>5.8810708429501935</v>
+      </c>
+      <c r="B20" s="0">
+        <v>6.4240210970519742</v>
+      </c>
+      <c r="C20" s="0">
+        <v>6.6665375514148204</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>5.8957150562025937</v>
+      </c>
+      <c r="B21" s="0">
+        <v>6.4418626059637916</v>
+      </c>
+      <c r="C21" s="0">
+        <v>6.6826012228303489</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>5.9106529750277348</v>
+      </c>
+      <c r="B22" s="0">
+        <v>6.4599903958944474</v>
+      </c>
+      <c r="C22" s="0">
+        <v>6.698965215602704</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>5.9263419049270842</v>
+      </c>
+      <c r="B23" s="0">
+        <v>6.4789143181688562</v>
+      </c>
+      <c r="C23" s="0">
+        <v>6.716158231081411</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>5.9427044844008234</v>
+      </c>
+      <c r="B24" s="0">
+        <v>6.4985568801372953</v>
+      </c>
+      <c r="C24" s="0">
+        <v>6.7341035183918994</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>5.9596663636387159</v>
+      </c>
+      <c r="B25" s="0">
+        <v>6.518842248390686</v>
+      </c>
+      <c r="C25" s="0">
+        <v>6.7542336837788541</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>5.9771583727402797</v>
+      </c>
+      <c r="B26" s="0">
+        <v>6.5396987418752124</v>
+      </c>
+      <c r="C26" s="0">
+        <v>6.7750011803679566</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>5.9951177752508169</v>
+      </c>
+      <c r="B27" s="0">
+        <v>6.5610602384239156</v>
+      </c>
+      <c r="C27" s="0">
+        <v>6.7963030556474919</v>
       </c>
     </row>
   </sheetData>
